--- a/output_template.xlsx
+++ b/output_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>F L I G H T   L I S T</t>
   </si>
@@ -43,6 +43,18 @@
   <si>
     <t>NAME</t>
   </si>
+  <si>
+    <t>routing</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>flight number</t>
+  </si>
+  <si>
+    <t>adults+infants</t>
+  </si>
 </sst>
 </file>
 
@@ -51,7 +63,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -159,8 +171,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,12 +193,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE5B8B7"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -356,10 +370,11 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="7"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0"/>
@@ -371,8 +386,8 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0"/>
@@ -384,9 +399,8 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -407,16 +421,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="38">
     <cellStyle name="20 % – Zvýraznění1 2" xfId="13"/>
@@ -514,7 +531,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -549,7 +566,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -762,23 +779,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="17" style="13" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="17" style="11" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="7"/>
@@ -788,12 +805,19 @@
     </row>
     <row r="2" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1761,6 +1785,7 @@
   </sheetData>
   <autoFilter ref="A4:F196"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
